--- a/biology/Médecine/Muscle_obturateur_externe/Muscle_obturateur_externe.xlsx
+++ b/biology/Médecine/Muscle_obturateur_externe/Muscle_obturateur_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur externe est un muscle du membre inférieur situé dans la cuisse. Il appartient au groupe des muscles pelvi-trochantériens et se situe dans la partie supérieure de la loge fémorale médiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur externe est un muscle plat en éventail qui relie l'os coxal au fémur.
 </t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur externe se fixe sur la face externe de l'os coxal sur le pourtour du foramen obturé et sur la membrane obturatrice.
 </t>
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fibres musculaires se dirigent en convergeant en dehors et en arrière, passent successivement sous, en arrière puis au-dessus du col du fémur pour se finir par un tendon.
 </t>
@@ -604,7 +622,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur externe s'insère dans la fosse trochantérienne.
 </t>
@@ -635,7 +655,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur externe est innervé par le rameau postérieur du nerf obturateur.
 </t>
@@ -666,7 +688,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le muscle obturateur externe est :
 Rotateur externe de la hanche
